--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H2">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I2">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J2">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>1.103550940697778</v>
+        <v>9.317269868902669</v>
       </c>
       <c r="R2">
-        <v>9.931958466279999</v>
+        <v>83.855428820124</v>
       </c>
       <c r="S2">
-        <v>3.425690268238459E-05</v>
+        <v>0.0006377824773470065</v>
       </c>
       <c r="T2">
-        <v>3.425690268238458E-05</v>
+        <v>0.0006377824773470064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H3">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I3">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J3">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.5064395748044445</v>
+        <v>0.3745262736395556</v>
       </c>
       <c r="R3">
-        <v>4.55795617324</v>
+        <v>3.370736462756</v>
       </c>
       <c r="S3">
-        <v>1.572111498325056E-05</v>
+        <v>2.563694064831363E-05</v>
       </c>
       <c r="T3">
-        <v>1.572111498325056E-05</v>
+        <v>2.563694064831363E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H4">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I4">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J4">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>694.9445336073802</v>
+        <v>476.7307947671953</v>
       </c>
       <c r="R4">
-        <v>6254.500802466421</v>
+        <v>4290.577152904757</v>
       </c>
       <c r="S4">
-        <v>0.02157276694666236</v>
+        <v>0.03263300855211124</v>
       </c>
       <c r="T4">
-        <v>0.02157276694666235</v>
+        <v>0.03263300855211123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H5">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I5">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J5">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>18.55994941222111</v>
+        <v>6.782118643131</v>
       </c>
       <c r="R5">
-        <v>167.03954470999</v>
+        <v>61.039067788179</v>
       </c>
       <c r="S5">
-        <v>0.0005761459279826429</v>
+        <v>0.0004642471980246334</v>
       </c>
       <c r="T5">
-        <v>0.0005761459279826428</v>
+        <v>0.0004642471980246334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H6">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I6">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J6">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>722.7412822204956</v>
+        <v>658.3669854284179</v>
       </c>
       <c r="R6">
-        <v>6504.67153998446</v>
+        <v>5925.302868855761</v>
       </c>
       <c r="S6">
-        <v>0.02243564556604363</v>
+        <v>0.04506630513853192</v>
       </c>
       <c r="T6">
-        <v>0.02243564556604362</v>
+        <v>0.0450663051385319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H7">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I7">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J7">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>937.3887804722135</v>
+        <v>196.6392183413537</v>
       </c>
       <c r="R7">
-        <v>8436.499024249921</v>
+        <v>1769.752965072183</v>
       </c>
       <c r="S7">
-        <v>0.02909882547686587</v>
+        <v>0.01346027855605065</v>
       </c>
       <c r="T7">
-        <v>0.02909882547686586</v>
+        <v>0.01346027855605065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
         <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>5.331283010404888</v>
+        <v>60.86580537187867</v>
       </c>
       <c r="R8">
-        <v>47.98154709364399</v>
+        <v>547.792248346908</v>
       </c>
       <c r="S8">
-        <v>0.0001654959789569942</v>
+        <v>0.004166364684290227</v>
       </c>
       <c r="T8">
-        <v>0.0001654959789569942</v>
+        <v>0.004166364684290227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
         <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>2.446622626450222</v>
@@ -1013,10 +1013,10 @@
         <v>22.019603638052</v>
       </c>
       <c r="S9">
-        <v>7.594911129506159E-05</v>
+        <v>0.0001674753508040696</v>
       </c>
       <c r="T9">
-        <v>7.594911129506157E-05</v>
+        <v>0.0001674753508040696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
         <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>3357.294936337174</v>
+        <v>3114.28177753303</v>
       </c>
       <c r="R10">
-        <v>30215.65442703457</v>
+        <v>28028.53599779727</v>
       </c>
       <c r="S10">
-        <v>0.1042185926074638</v>
+        <v>0.2131777199950935</v>
       </c>
       <c r="T10">
-        <v>0.1042185926074638</v>
+        <v>0.2131777199950935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
         <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>89.66359352000855</v>
+        <v>44.304728654427</v>
       </c>
       <c r="R11">
-        <v>806.972341680077</v>
+        <v>398.7425578898429</v>
       </c>
       <c r="S11">
-        <v>0.002783375813558406</v>
+        <v>0.00303273169039755</v>
       </c>
       <c r="T11">
-        <v>0.002783375813558406</v>
+        <v>0.00303273169039755</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
         <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>3491.581744639739</v>
+        <v>4300.834618099992</v>
       </c>
       <c r="R12">
-        <v>31424.23570175765</v>
+        <v>38707.51156289992</v>
       </c>
       <c r="S12">
-        <v>0.1083871814363947</v>
+        <v>0.2943992173658733</v>
       </c>
       <c r="T12">
-        <v>0.1083871814363947</v>
+        <v>0.2943992173658733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
         <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>4528.549335761291</v>
+        <v>1284.561310388746</v>
       </c>
       <c r="R13">
-        <v>40756.94402185162</v>
+        <v>11561.05179349871</v>
       </c>
       <c r="S13">
-        <v>0.1405771751591823</v>
+        <v>0.08793033864761715</v>
       </c>
       <c r="T13">
-        <v>0.1405771751591823</v>
+        <v>0.08793033864761715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H14">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I14">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J14">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>1.304840057415555</v>
+        <v>1.28444694586</v>
       </c>
       <c r="R14">
-        <v>11.74356051674</v>
+        <v>11.56002251274</v>
       </c>
       <c r="S14">
-        <v>4.050540597128939E-05</v>
+        <v>8.792251020715226E-05</v>
       </c>
       <c r="T14">
-        <v>4.050540597128939E-05</v>
+        <v>8.792251020715226E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H15">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I15">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J15">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.5988148072688888</v>
+        <v>0.05163091067333333</v>
       </c>
       <c r="R15">
-        <v>5.389333265419999</v>
+        <v>0.46467819606</v>
       </c>
       <c r="S15">
-        <v>1.858866665856897E-05</v>
+        <v>3.534220923108105E-06</v>
       </c>
       <c r="T15">
-        <v>1.858866665856897E-05</v>
+        <v>3.534220923108105E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H16">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I16">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J16">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>821.7033139942899</v>
+        <v>65.72047627168833</v>
       </c>
       <c r="R16">
-        <v>7395.32982594861</v>
+        <v>591.4842864451949</v>
       </c>
       <c r="S16">
-        <v>0.02550766749697718</v>
+        <v>0.004498674907858933</v>
       </c>
       <c r="T16">
-        <v>0.02550766749697718</v>
+        <v>0.004498674907858933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H17">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I17">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J17">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>21.94530815347722</v>
+        <v>0.9349596716849997</v>
       </c>
       <c r="R17">
-        <v>197.507773381295</v>
+        <v>8.414637045164998</v>
       </c>
       <c r="S17">
-        <v>0.0006812356892861319</v>
+        <v>6.399953033635073E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006812356892861321</v>
+        <v>6.399953033635073E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H18">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I18">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J18">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>854.5702254513809</v>
+        <v>90.76022006306667</v>
       </c>
       <c r="R18">
-        <v>7691.132029062429</v>
+        <v>816.8419805676</v>
       </c>
       <c r="S18">
-        <v>0.02652793629086194</v>
+        <v>0.006212686635768715</v>
       </c>
       <c r="T18">
-        <v>0.02652793629086194</v>
+        <v>0.006212686635768714</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H19">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I19">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J19">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>1108.369704581707</v>
+        <v>27.108009855745</v>
       </c>
       <c r="R19">
-        <v>9975.327341235359</v>
+        <v>243.972088701705</v>
       </c>
       <c r="S19">
-        <v>0.03440648882230193</v>
+        <v>0.001855587948509246</v>
       </c>
       <c r="T19">
-        <v>0.03440648882230193</v>
+        <v>0.001855587948509246</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H20">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>5.562483140986222</v>
+        <v>26.64239385756667</v>
       </c>
       <c r="R20">
-        <v>50.062348268876</v>
+        <v>239.7815447181</v>
       </c>
       <c r="S20">
-        <v>0.0001726729927960395</v>
+        <v>0.001823715766100779</v>
       </c>
       <c r="T20">
-        <v>0.0001726729927960394</v>
+        <v>0.001823715766100779</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H21">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>2.552724566567556</v>
+        <v>1.070944239322222</v>
       </c>
       <c r="R21">
-        <v>22.974521099108</v>
+        <v>9.638498153899999</v>
       </c>
       <c r="S21">
-        <v>7.924277333001345E-05</v>
+        <v>7.330789809310044E-05</v>
       </c>
       <c r="T21">
-        <v>7.924277333001344E-05</v>
+        <v>7.330789809310044E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H22">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>3502.889725840247</v>
+        <v>1363.194345224464</v>
       </c>
       <c r="R22">
-        <v>31526.00753256222</v>
+        <v>12268.74910702017</v>
       </c>
       <c r="S22">
-        <v>0.1087382086497602</v>
+        <v>0.09331289946902481</v>
       </c>
       <c r="T22">
-        <v>0.1087382086497602</v>
+        <v>0.09331289946902481</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H23">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>93.55200733892589</v>
+        <v>19.39322125702499</v>
       </c>
       <c r="R23">
-        <v>841.9680660503331</v>
+        <v>174.538991313225</v>
       </c>
       <c r="S23">
-        <v>0.00290408162682994</v>
+        <v>0.001327497954988475</v>
       </c>
       <c r="T23">
-        <v>0.00290408162682994</v>
+        <v>0.001327497954988475</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H24">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>3643.000109359942</v>
+        <v>1882.576417277111</v>
       </c>
       <c r="R24">
-        <v>32787.00098423948</v>
+        <v>16943.187755494</v>
       </c>
       <c r="S24">
-        <v>0.11308757540395</v>
+        <v>0.1288654582404465</v>
       </c>
       <c r="T24">
-        <v>0.11308757540395</v>
+        <v>0.1288654582404465</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H25">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>4724.937558957963</v>
+        <v>562.2826832975916</v>
       </c>
       <c r="R25">
-        <v>42524.43803062167</v>
+        <v>5060.544149678324</v>
       </c>
       <c r="S25">
-        <v>0.1466735428046676</v>
+        <v>0.03848917631116073</v>
       </c>
       <c r="T25">
-        <v>0.1466735428046676</v>
+        <v>0.03848917631116073</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H26">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>0.2579563468333333</v>
+        <v>1.721550747585333</v>
       </c>
       <c r="R26">
-        <v>2.3216071215</v>
+        <v>15.493956728268</v>
       </c>
       <c r="S26">
-        <v>8.007591805581194E-06</v>
+        <v>0.0001178429857804342</v>
       </c>
       <c r="T26">
-        <v>8.007591805581194E-06</v>
+        <v>0.0001178429857804342</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H27">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>0.1183808538333333</v>
+        <v>0.06920117109911111</v>
       </c>
       <c r="R27">
-        <v>1.0654276845</v>
+        <v>0.622810539892</v>
       </c>
       <c r="S27">
-        <v>3.674829352836109E-06</v>
+        <v>4.736934204966109E-06</v>
       </c>
       <c r="T27">
-        <v>3.674829352836109E-06</v>
+        <v>4.736934204966109E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H28">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>162.44411248275</v>
+        <v>88.08548723780544</v>
       </c>
       <c r="R28">
-        <v>1461.99701234475</v>
+        <v>792.7693851402489</v>
       </c>
       <c r="S28">
-        <v>0.005042659969216507</v>
+        <v>0.006029596765931406</v>
       </c>
       <c r="T28">
-        <v>0.005042659969216505</v>
+        <v>0.006029596765931406</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H29">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>4.338410281958333</v>
+        <v>1.253131183767</v>
       </c>
       <c r="R29">
-        <v>39.045692537625</v>
+        <v>11.278180653903</v>
       </c>
       <c r="S29">
-        <v>0.0001346747969163346</v>
+        <v>8.577889468364532E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001346747969163346</v>
+        <v>8.577889468364532E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H30">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>168.9416355799166</v>
+        <v>121.6463826740356</v>
       </c>
       <c r="R30">
-        <v>1520.47472021925</v>
+        <v>1094.81744406632</v>
       </c>
       <c r="S30">
-        <v>0.005244358874276061</v>
+        <v>0.008326895366752506</v>
       </c>
       <c r="T30">
-        <v>0.005244358874276061</v>
+        <v>0.008326895366752506</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H31">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>219.115743964</v>
+        <v>36.33300291859233</v>
       </c>
       <c r="R31">
-        <v>1972.041695676</v>
+        <v>326.997026267331</v>
       </c>
       <c r="S31">
-        <v>0.006801885114978781</v>
+        <v>0.002487053926409986</v>
       </c>
       <c r="T31">
-        <v>0.006801885114978781</v>
+        <v>0.002487053926409986</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H32">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>1.406665607907111</v>
+        <v>1.127972070325333</v>
       </c>
       <c r="R32">
-        <v>12.659990471164</v>
+        <v>10.151748632928</v>
       </c>
       <c r="S32">
-        <v>4.366631848119478E-05</v>
+        <v>7.721154710688331E-05</v>
       </c>
       <c r="T32">
-        <v>4.366631848119477E-05</v>
+        <v>7.721154710688331E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H33">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>0.6455444022457777</v>
+        <v>0.04534109049244444</v>
       </c>
       <c r="R33">
-        <v>5.809899620212</v>
+        <v>0.408069814432</v>
       </c>
       <c r="S33">
-        <v>2.003926683339945E-05</v>
+        <v>3.10367236612969E-06</v>
       </c>
       <c r="T33">
-        <v>2.003926683339944E-05</v>
+        <v>3.10367236612969E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H34">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>885.826416142094</v>
+        <v>57.71422628383377</v>
       </c>
       <c r="R34">
-        <v>7972.437745278846</v>
+        <v>519.4280365545039</v>
       </c>
       <c r="S34">
-        <v>0.02749820439831948</v>
+        <v>0.003950633901924789</v>
       </c>
       <c r="T34">
-        <v>0.02749820439831947</v>
+        <v>0.003950633901924789</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H35">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>23.65784990963744</v>
+        <v>0.8210603014319998</v>
       </c>
       <c r="R35">
-        <v>212.920649186737</v>
+        <v>7.389542712887999</v>
       </c>
       <c r="S35">
-        <v>0.0007343971466477703</v>
+        <v>5.620293073686122E-05</v>
       </c>
       <c r="T35">
-        <v>0.0007343971466477703</v>
+        <v>5.620293073686122E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H36">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>921.2581563941441</v>
+        <v>79.70355930830222</v>
       </c>
       <c r="R36">
-        <v>8291.323407547297</v>
+        <v>717.33203377472</v>
       </c>
       <c r="S36">
-        <v>0.0285980917101952</v>
+        <v>0.005455839985775781</v>
       </c>
       <c r="T36">
-        <v>0.0285980917101952</v>
+        <v>0.005455839985775781</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H37">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>1194.863336253877</v>
+        <v>23.80563720279733</v>
       </c>
       <c r="R37">
-        <v>10753.7700262849</v>
+        <v>214.250734825176</v>
       </c>
       <c r="S37">
-        <v>0.03709146131751458</v>
+        <v>0.001629535098119068</v>
       </c>
       <c r="T37">
-        <v>0.03709146131751458</v>
+        <v>0.001629535098119068</v>
       </c>
     </row>
   </sheetData>
